--- a/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 16,95</t>
+          <t>6,54; 17,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 16,42</t>
+          <t>5,06; 17,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,88</t>
+          <t>6,53; 14,86</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,42</t>
+          <t>8,79; 17,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 15,67</t>
+          <t>6,68; 14,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,9</t>
+          <t>8,96; 14,85</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 13,34</t>
+          <t>5,4; 13,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 15,82</t>
+          <t>6,92; 16,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,89</t>
+          <t>7,23; 13,1</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,68</t>
+          <t>6,48; 12,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,72</t>
+          <t>6,5; 13,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,66</t>
+          <t>7,05; 11,7</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,12</t>
+          <t>8,11; 12,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,19</t>
+          <t>8,26; 12,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 11,52</t>
+          <t>8,61; 11,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,1%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 17,69</t>
+          <t>4,83; 17,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 17,76</t>
+          <t>6,02; 17,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,86</t>
+          <t>6,99; 15,33</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 17,85</t>
+          <t>7,04; 15,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,57</t>
+          <t>8,8; 17,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 14,85</t>
+          <t>9,17; 14,65</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 13,32</t>
+          <t>7,42; 17,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 16,28</t>
+          <t>5,42; 12,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,1</t>
+          <t>7,01; 13,23</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,52%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 12,67</t>
+          <t>5,0; 11,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 13,3</t>
+          <t>5,99; 12,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,7</t>
+          <t>6,37; 10,95</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 12,0</t>
+          <t>7,77; 12,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,53</t>
+          <t>7,69; 11,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 11,62</t>
+          <t>8,24; 11,28</t>
         </is>
       </c>
     </row>
